--- a/data/trans_camb/P5B_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P5B_R-Habitat-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con calidad medioambiental mala o muy mala en la zona de residencia</t>
+          <t>Hogares con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 1,26</t>
+          <t>-3,01; 1,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 1,47</t>
+          <t>-2,83; 1,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 0,0</t>
+          <t>-4,43; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 0,0</t>
+          <t>-5,1; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 0,0</t>
+          <t>-4,51; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 0,0</t>
+          <t>-5,08; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 0,31</t>
+          <t>-2,75; 0,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 0,37</t>
+          <t>-2,68; 0,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,17; -0,34</t>
+          <t>-3,27; -0,34</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,77; -1,06</t>
+          <t>-3,7; -0,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 0,78</t>
+          <t>-2,46; 0,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,63; -0,9</t>
+          <t>-3,61; -0,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,57; -1,43</t>
+          <t>-4,33; -1,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,49; -1,37</t>
+          <t>-4,39; -1,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,79; -1,75</t>
+          <t>-4,64; -1,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,54; -1,52</t>
+          <t>-3,43; -1,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,95; -0,63</t>
+          <t>-2,89; -0,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,51; -1,53</t>
+          <t>-3,41; -1,54</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -40,47</t>
+          <t>-100,0; -49,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-80,37; 71,34</t>
+          <t>-78,58; 92,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -39,24</t>
+          <t>-100,0; -28,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-96,78; -53,95</t>
+          <t>-95,93; -47,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -48,42</t>
+          <t>-96,34; -40,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-96,74; -69,62</t>
+          <t>-97,05; -71,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-97,08; -66,85</t>
+          <t>-96,72; -66,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-84,15; -21,66</t>
+          <t>-83,44; -23,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-95,96; -71,48</t>
+          <t>-95,81; -75,12</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 0,59</t>
+          <t>-1,96; 0,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,31; -0,06</t>
+          <t>-2,45; 0,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; -0,85</t>
+          <t>-3,07; -0,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,51; -0,23</t>
+          <t>-3,42; -0,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,26; -1,31</t>
+          <t>-4,27; -1,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,33; -2,48</t>
+          <t>-5,32; -2,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,37; -0,29</t>
+          <t>-2,39; -0,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,02; -0,95</t>
+          <t>-2,95; -0,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; -1,98</t>
+          <t>-3,79; -2,01</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,76; 39,73</t>
+          <t>-67,32; 33,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-76,63; 1,57</t>
+          <t>-78,77; 7,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-94,63; -39,88</t>
+          <t>-94,15; -43,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-64,41; -2,15</t>
+          <t>-64,96; 1,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-79,74; -36,04</t>
+          <t>-78,88; -29,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-93,1; -68,92</t>
+          <t>-93,47; -69,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-59,0; -8,1</t>
+          <t>-59,36; -9,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-74,35; -31,75</t>
+          <t>-74,81; -33,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-90,62; -68,47</t>
+          <t>-91,56; -67,28</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,23</t>
+          <t>-2,14; 1,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,91</t>
+          <t>-2,44; 0,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,43; -0,48</t>
+          <t>-3,47; -0,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,63; -1,4</t>
+          <t>-4,69; -1,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 1,34</t>
+          <t>-2,61; 1,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,23; -2,16</t>
+          <t>-5,31; -2,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; -0,43</t>
+          <t>-2,77; -0,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 0,6</t>
+          <t>-2,0; 0,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,88; -1,79</t>
+          <t>-3,76; -1,77</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-61,43; 87,17</t>
+          <t>-64,06; 96,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-71,39; 70,21</t>
+          <t>-70,77; 76,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-94,59; -18,05</t>
+          <t>-95,22; -19,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-87,53; -39,57</t>
+          <t>-88,76; -36,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-52,52; 46,15</t>
+          <t>-50,17; 48,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-96,95; -71,74</t>
+          <t>-97,69; -73,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-71,52; -12,06</t>
+          <t>-73,03; -16,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-49,36; 24,02</t>
+          <t>-50,35; 22,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-94,21; -67,68</t>
+          <t>-94,72; -68,48</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,89; -0,49</t>
+          <t>-3,87; -0,5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,98; -1,75</t>
+          <t>-4,86; -1,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 0,1</t>
+          <t>-3,48; 0,06</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,68; -2,9</t>
+          <t>-6,52; -2,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,9; -2,13</t>
+          <t>-5,92; -2,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,21; -1,68</t>
+          <t>-5,36; -1,67</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,76; -2,41</t>
+          <t>-4,68; -2,17</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,82; -2,43</t>
+          <t>-4,73; -2,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,86; -1,29</t>
+          <t>-3,91; -1,3</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-69,68; -6,65</t>
+          <t>-69,95; -12,94</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-85,66; -42,97</t>
+          <t>-85,76; -39,94</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-61,21; 7,54</t>
+          <t>-61,32; 2,08</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-83,64; -51,58</t>
+          <t>-83,14; -49,95</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-74,8; -36,51</t>
+          <t>-73,87; -34,28</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-67,07; -29,27</t>
+          <t>-66,75; -28,63</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-73,32; -46,56</t>
+          <t>-73,4; -42,67</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-75,75; -49,1</t>
+          <t>-74,54; -46,66</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-60,86; -26,29</t>
+          <t>-59,42; -25,91</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,04; -0,57</t>
+          <t>-1,98; -0,54</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,32; -0,91</t>
+          <t>-2,39; -0,87</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,5; -1,13</t>
+          <t>-2,6; -1,11</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,92; -2,24</t>
+          <t>-3,95; -2,18</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,54; -1,77</t>
+          <t>-3,55; -1,78</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,23; -2,6</t>
+          <t>-4,34; -2,65</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,76; -1,64</t>
+          <t>-2,81; -1,62</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,71; -1,53</t>
+          <t>-2,63; -1,54</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,15; -2,07</t>
+          <t>-3,15; -2,09</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-60,55; -22,58</t>
+          <t>-59,83; -20,58</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-68,54; -33,87</t>
+          <t>-67,99; -32,97</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-74,25; -42,88</t>
+          <t>-74,15; -41,95</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-74,84; -51,95</t>
+          <t>-75,16; -51,79</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-66,53; -40,91</t>
+          <t>-66,89; -42,56</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-80,31; -63,01</t>
+          <t>-79,86; -62,73</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-65,84; -46,23</t>
+          <t>-66,34; -45,71</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-64,08; -43,4</t>
+          <t>-62,82; -42,8</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-75,28; -60,35</t>
+          <t>-74,8; -59,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5B_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P5B_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 1,3</t>
+          <t>-3,07; 1,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 1,47</t>
+          <t>-2,69; 1,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 0,0</t>
+          <t>-3,57; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 0,0</t>
+          <t>-5,11; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 0,0</t>
+          <t>-5,37; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 0,0</t>
+          <t>-5,12; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 0,3</t>
+          <t>-2,95; 0,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 0,38</t>
+          <t>-2,75; 0,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,27; -0,34</t>
+          <t>-3,15; -0,34</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,7; -0,99</t>
+          <t>-3,61; -1,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 0,97</t>
+          <t>-2,48; 0,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,61; -0,83</t>
+          <t>-3,59; -0,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; -1,26</t>
+          <t>-4,44; -1,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,39; -1,27</t>
+          <t>-4,42; -1,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; -1,61</t>
+          <t>-4,62; -1,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; -1,53</t>
+          <t>-3,61; -1,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; -0,63</t>
+          <t>-2,98; -0,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,41; -1,54</t>
+          <t>-3,62; -1,58</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -49,78</t>
+          <t>-100,0; -32,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-78,58; 92,31</t>
+          <t>-78,18; 63,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -28,67</t>
+          <t>-100,0; -34,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-95,93; -47,04</t>
+          <t>-96,71; -48,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-96,34; -40,46</t>
+          <t>-96,5; -44,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-97,05; -71,77</t>
+          <t>-97,01; -73,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-96,72; -66,54</t>
+          <t>-97,09; -67,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-83,44; -23,79</t>
+          <t>-83,36; -23,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-95,81; -75,12</t>
+          <t>-95,97; -75,23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 0,48</t>
+          <t>-1,98; 0,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,02</t>
+          <t>-2,47; 0,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,07; -0,93</t>
+          <t>-3,18; -0,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,42; -0,06</t>
+          <t>-3,45; -0,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,27; -1,18</t>
+          <t>-4,36; -1,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,32; -2,52</t>
+          <t>-5,33; -2,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,39; -0,31</t>
+          <t>-2,3; -0,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,95; -0,96</t>
+          <t>-2,87; -0,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; -2,01</t>
+          <t>-3,79; -1,88</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-67,32; 33,82</t>
+          <t>-64,8; 34,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-78,77; 7,41</t>
+          <t>-77,15; 3,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-94,15; -43,58</t>
+          <t>-94,03; -40,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-64,96; 1,7</t>
+          <t>-64,27; -2,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-78,88; -29,85</t>
+          <t>-79,96; -31,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-93,47; -69,49</t>
+          <t>-93,61; -68,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-59,36; -9,86</t>
+          <t>-58,31; -5,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-74,81; -33,84</t>
+          <t>-73,36; -28,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-91,56; -67,28</t>
+          <t>-91,81; -69,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,32</t>
+          <t>-2,23; 1,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 0,78</t>
+          <t>-2,57; 0,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,47; -0,56</t>
+          <t>-3,44; -0,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,69; -1,34</t>
+          <t>-4,57; -1,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 1,32</t>
+          <t>-2,69; 1,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,31; -2,18</t>
+          <t>-5,34; -2,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,77; -0,46</t>
+          <t>-2,8; -0,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 0,56</t>
+          <t>-1,9; 0,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,76; -1,77</t>
+          <t>-3,75; -1,71</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-64,06; 96,55</t>
+          <t>-64,66; 103,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-70,77; 76,15</t>
+          <t>-72,58; 68,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-95,22; -19,19</t>
+          <t>-95,03; -24,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-88,76; -36,32</t>
+          <t>-89,02; -40,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-50,17; 48,73</t>
+          <t>-53,71; 54,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-97,69; -73,64</t>
+          <t>-97,44; -75,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-73,03; -16,23</t>
+          <t>-70,76; -17,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-50,35; 22,53</t>
+          <t>-49,46; 31,42</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-94,72; -68,48</t>
+          <t>-94,47; -70,18</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,87; -0,5</t>
+          <t>-3,84; -0,5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,86; -1,65</t>
+          <t>-4,92; -1,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 0,06</t>
+          <t>-3,53; 0,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,52; -2,88</t>
+          <t>-6,5; -3,05</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,92; -2,0</t>
+          <t>-5,9; -2,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,36; -1,67</t>
+          <t>-5,17; -1,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,68; -2,17</t>
+          <t>-4,64; -2,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,73; -2,24</t>
+          <t>-4,75; -2,29</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,91; -1,3</t>
+          <t>-4,01; -1,44</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-69,95; -12,94</t>
+          <t>-69,14; -9,57</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-85,76; -39,94</t>
+          <t>-85,42; -42,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-61,32; 2,08</t>
+          <t>-64,16; 1,44</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-83,14; -49,95</t>
+          <t>-83,07; -51,23</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-73,87; -34,28</t>
+          <t>-74,68; -35,85</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-66,75; -28,63</t>
+          <t>-65,79; -27,01</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-73,4; -42,67</t>
+          <t>-73,56; -44,62</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-74,54; -46,66</t>
+          <t>-73,93; -46,6</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-59,42; -25,91</t>
+          <t>-60,12; -26,67</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,98; -0,54</t>
+          <t>-2,01; -0,52</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,39; -0,87</t>
+          <t>-2,32; -0,84</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,6; -1,11</t>
+          <t>-2,57; -1,1</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,95; -2,18</t>
+          <t>-3,9; -2,24</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,55; -1,78</t>
+          <t>-3,43; -1,73</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,34; -2,65</t>
+          <t>-4,18; -2,58</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,81; -1,62</t>
+          <t>-2,78; -1,66</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,63; -1,54</t>
+          <t>-2,64; -1,5</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,15; -2,09</t>
+          <t>-3,11; -2,08</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-59,83; -20,58</t>
+          <t>-59,68; -20,12</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-67,99; -32,97</t>
+          <t>-67,73; -32,13</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-74,15; -41,95</t>
+          <t>-75,11; -42,36</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-75,16; -51,79</t>
+          <t>-74,86; -53,36</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-66,89; -42,56</t>
+          <t>-65,8; -39,4</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-79,86; -62,73</t>
+          <t>-79,61; -61,59</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-66,34; -45,71</t>
+          <t>-66,43; -46,87</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-62,82; -42,8</t>
+          <t>-62,92; -42,42</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-74,8; -59,21</t>
+          <t>-74,4; -58,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5B_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P5B_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
+          <t>Población con calidad medioambiental percibida como mala o muy mala en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 1,3</t>
+          <t>-2,69; 1,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 1,94</t>
+          <t>-2,79; 1,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 0,0</t>
+          <t>-4,41; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 0,0</t>
+          <t>-5,13; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 0,0</t>
+          <t>-5,12; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 0,0</t>
+          <t>-4,7; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 0,21</t>
+          <t>-2,75; 0,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 0,37</t>
+          <t>-2,6; 0,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; -0,34</t>
+          <t>-3,17; -0,34</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,61; -1,0</t>
+          <t>-3,77; -1,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 0,81</t>
+          <t>-2,61; 0,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,59; -0,9</t>
+          <t>-3,63; -0,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,44; -1,36</t>
+          <t>-4,57; -1,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,42; -1,28</t>
+          <t>-4,49; -1,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; -1,67</t>
+          <t>-4,79; -1,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,61; -1,58</t>
+          <t>-3,54; -1,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; -0,58</t>
+          <t>-2,95; -0,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,62; -1,58</t>
+          <t>-3,51; -1,53</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -32,07</t>
+          <t>-100,0; -40,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-78,18; 63,05</t>
+          <t>-80,37; 71,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -34,37</t>
+          <t>-100,0; -39,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-96,71; -48,05</t>
+          <t>-96,78; -53,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-96,5; -44,27</t>
+          <t>-100,0; -48,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-97,01; -73,42</t>
+          <t>-96,74; -69,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-97,09; -67,04</t>
+          <t>-97,08; -66,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-83,36; -23,57</t>
+          <t>-84,15; -21,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-95,97; -75,23</t>
+          <t>-95,96; -71,48</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 0,52</t>
+          <t>-2,08; 0,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 0,01</t>
+          <t>-2,31; -0,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,18; -0,85</t>
+          <t>-3,09; -0,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,45; -0,11</t>
+          <t>-3,51; -0,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,36; -1,18</t>
+          <t>-4,26; -1,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,33; -2,57</t>
+          <t>-5,33; -2,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,3; -0,24</t>
+          <t>-2,37; -0,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,87; -0,87</t>
+          <t>-3,02; -0,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; -1,88</t>
+          <t>-3,82; -1,98</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-64,8; 34,57</t>
+          <t>-66,76; 39,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-77,15; 3,49</t>
+          <t>-76,63; 1,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-94,03; -40,61</t>
+          <t>-94,63; -39,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-64,27; -2,74</t>
+          <t>-64,41; -2,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-79,96; -31,03</t>
+          <t>-79,74; -36,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-93,61; -68,5</t>
+          <t>-93,1; -68,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-58,31; -5,82</t>
+          <t>-59,0; -8,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-73,36; -28,83</t>
+          <t>-74,35; -31,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-91,81; -69,0</t>
+          <t>-90,62; -68,47</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,25</t>
+          <t>-2,05; 1,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 0,75</t>
+          <t>-2,36; 0,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,44; -0,59</t>
+          <t>-3,43; -0,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,57; -1,3</t>
+          <t>-4,63; -1,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 1,5</t>
+          <t>-2,74; 1,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,34; -2,35</t>
+          <t>-5,23; -2,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,8; -0,51</t>
+          <t>-2,88; -0,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 0,73</t>
+          <t>-1,91; 0,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,75; -1,71</t>
+          <t>-3,88; -1,79</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-64,66; 103,88</t>
+          <t>-61,43; 87,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-72,58; 68,58</t>
+          <t>-71,39; 70,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-95,03; -24,69</t>
+          <t>-94,59; -18,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-89,02; -40,78</t>
+          <t>-87,53; -39,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-53,71; 54,65</t>
+          <t>-52,52; 46,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-97,44; -75,66</t>
+          <t>-96,95; -71,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-70,76; -17,13</t>
+          <t>-71,52; -12,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-49,46; 31,42</t>
+          <t>-49,36; 24,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-94,47; -70,18</t>
+          <t>-94,21; -67,68</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,84; -0,5</t>
+          <t>-3,89; -0,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,92; -1,73</t>
+          <t>-4,98; -1,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 0,01</t>
+          <t>-3,54; 0,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,5; -3,05</t>
+          <t>-6,68; -2,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,9; -2,19</t>
+          <t>-5,9; -2,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,17; -1,63</t>
+          <t>-5,21; -1,68</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,64; -2,22</t>
+          <t>-4,76; -2,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,75; -2,29</t>
+          <t>-4,82; -2,43</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,01; -1,44</t>
+          <t>-3,86; -1,29</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-69,14; -9,57</t>
+          <t>-69,68; -6,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-85,42; -42,51</t>
+          <t>-85,66; -42,97</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-64,16; 1,44</t>
+          <t>-61,21; 7,54</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-83,07; -51,23</t>
+          <t>-83,64; -51,58</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-74,68; -35,85</t>
+          <t>-74,8; -36,51</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-65,79; -27,01</t>
+          <t>-67,07; -29,27</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-73,56; -44,62</t>
+          <t>-73,32; -46,56</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-73,93; -46,6</t>
+          <t>-75,75; -49,1</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-60,12; -26,67</t>
+          <t>-60,86; -26,29</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,01; -0,52</t>
+          <t>-2,04; -0,57</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,32; -0,84</t>
+          <t>-2,32; -0,91</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,57; -1,1</t>
+          <t>-2,5; -1,13</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,9; -2,24</t>
+          <t>-3,92; -2,24</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,43; -1,73</t>
+          <t>-3,54; -1,77</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,18; -2,58</t>
+          <t>-4,23; -2,6</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,78; -1,66</t>
+          <t>-2,76; -1,64</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,64; -1,5</t>
+          <t>-2,71; -1,53</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,11; -2,08</t>
+          <t>-3,15; -2,07</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-59,68; -20,12</t>
+          <t>-60,55; -22,58</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-67,73; -32,13</t>
+          <t>-68,54; -33,87</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-75,11; -42,36</t>
+          <t>-74,25; -42,88</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-74,86; -53,36</t>
+          <t>-74,84; -51,95</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-65,8; -39,4</t>
+          <t>-66,53; -40,91</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-79,61; -61,59</t>
+          <t>-80,31; -63,01</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-66,43; -46,87</t>
+          <t>-65,84; -46,23</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-62,92; -42,42</t>
+          <t>-64,08; -43,4</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-74,4; -58,29</t>
+          <t>-75,28; -60,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5B_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P5B_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-2,23</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 1,26</t>
+          <t>-3,21; -0,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 1,47</t>
+          <t>-2,26; 0,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 0,0</t>
+          <t>-3,15; -0,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 0,0</t>
+          <t>-3,98; -1,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 0,0</t>
+          <t>-3,9; -1,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 0,0</t>
+          <t>-4,17; -1,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 0,31</t>
+          <t>-3,13; -1,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 0,37</t>
+          <t>-2,61; -0,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,17; -0,34</t>
+          <t>-3,11; -1,51</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-28,45%</t>
+          <t>-87,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-17,41%</t>
+          <t>-35,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-89,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-85,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-83,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-90,44%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-72,46%</t>
+          <t>-86,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-68,47%</t>
+          <t>-63,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-89,83%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -48,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,3; 58,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -47,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,78; -51,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,76; -46,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,26; -75,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,34; -67,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,45; -26,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,88; -75,64</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>-3,74</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>-2,86</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,77; -1,06</t>
+          <t>-2,08; 0,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 0,78</t>
+          <t>-2,31; -0,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,63; -0,9</t>
+          <t>-3,18; -0,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,57; -1,43</t>
+          <t>-3,51; -0,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,49; -1,37</t>
+          <t>-4,26; -1,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,79; -1,75</t>
+          <t>-5,32; -2,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,54; -1,52</t>
+          <t>-2,37; -0,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,95; -0,63</t>
+          <t>-3,02; -0,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,51; -1,53</t>
+          <t>-3,89; -2,04</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-92,49%</t>
+          <t>-30,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-36,46%</t>
+          <t>-49,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-88,07%</t>
+          <t>-83,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-84,75%</t>
+          <t>-42,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-82,37%</t>
+          <t>-61,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-89,37%</t>
+          <t>-84,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-87,97%</t>
+          <t>-38,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-63,37%</t>
+          <t>-57,25%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-88,75%</t>
+          <t>-84,57%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -40,47</t>
+          <t>-66,76; 39,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-80,37; 71,34</t>
+          <t>-76,63; 1,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -39,24</t>
+          <t>-96,46; -50,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-96,78; -53,95</t>
+          <t>-64,41; -2,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -48,42</t>
+          <t>-79,74; -36,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-96,74; -69,62</t>
+          <t>-92,94; -68,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-97,08; -66,85</t>
+          <t>-59,0; -8,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-84,15; -21,66</t>
+          <t>-74,35; -31,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-95,96; -71,48</t>
+          <t>-91,84; -70,79</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>-2,75</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 0,59</t>
+          <t>-2,05; 1,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,31; -0,06</t>
+          <t>-2,36; 0,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; -0,85</t>
+          <t>-3,43; -0,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,51; -0,23</t>
+          <t>-4,63; -1,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,26; -1,31</t>
+          <t>-2,74; 1,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,33; -2,48</t>
+          <t>-5,27; -2,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,37; -0,29</t>
+          <t>-2,88; -0,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,02; -0,95</t>
+          <t>-1,91; 0,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; -1,98</t>
+          <t>-3,91; -1,83</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-30,75%</t>
+          <t>-13,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-49,45%</t>
+          <t>-32,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-80,07%</t>
+          <t>-76,37%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-42,11%</t>
+          <t>-72,12%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-61,45%</t>
+          <t>-14,46%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-84,83%</t>
+          <t>-92,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-38,12%</t>
+          <t>-50,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-57,25%</t>
+          <t>-21,15%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-83,16%</t>
+          <t>-86,85%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,76; 39,73</t>
+          <t>-61,43; 87,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-76,63; 1,57</t>
+          <t>-71,39; 70,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-94,63; -39,88</t>
+          <t>-94,52; -17,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-64,41; -2,15</t>
+          <t>-87,53; -39,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-79,74; -36,04</t>
+          <t>-52,52; 46,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-93,1; -68,92</t>
+          <t>-97,67; -77,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-59,0; -8,1</t>
+          <t>-71,52; -12,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-74,35; -31,75</t>
+          <t>-49,36; 24,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-90,62; -68,47</t>
+          <t>-95,06; -69,89</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-3,87</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,56</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>-2,63</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,23</t>
+          <t>-3,89; -0,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,91</t>
+          <t>-4,98; -1,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,43; -0,48</t>
+          <t>-3,51; 0,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,63; -1,4</t>
+          <t>-6,68; -2,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 1,34</t>
+          <t>-5,9; -2,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,23; -2,16</t>
+          <t>-5,36; -1,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; -0,43</t>
+          <t>-4,76; -2,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 0,6</t>
+          <t>-4,82; -2,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,88; -1,79</t>
+          <t>-3,97; -1,36</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-13,83%</t>
+          <t>-47,63%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-32,97%</t>
+          <t>-70,25%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-76,61%</t>
+          <t>-36,68%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-72,12%</t>
+          <t>-70,86%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-14,46%</t>
+          <t>-58,6%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-91,06%</t>
+          <t>-52,63%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-50,16%</t>
+          <t>-61,88%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-21,15%</t>
+          <t>-63,08%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-85,88%</t>
+          <t>-46,4%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-61,43; 87,17</t>
+          <t>-69,68; -6,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-71,39; 70,21</t>
+          <t>-85,66; -42,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-94,59; -18,05</t>
+          <t>-60,75; 7,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-87,53; -39,57</t>
+          <t>-83,64; -51,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-52,52; 46,15</t>
+          <t>-74,8; -36,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-96,95; -71,74</t>
+          <t>-68,75; -30,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-71,52; -12,06</t>
+          <t>-73,32; -46,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-49,36; 24,02</t>
+          <t>-75,75; -49,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-94,21; -67,68</t>
+          <t>-62,33; -27,54</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-4,68</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-3,5</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-3,57</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-2,68</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,89; -0,49</t>
+          <t>-2,04; -0,57</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,98; -1,75</t>
+          <t>-2,32; -0,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 0,1</t>
+          <t>-2,56; -1,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,68; -2,9</t>
+          <t>-3,92; -2,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,9; -2,13</t>
+          <t>-3,54; -1,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,21; -1,68</t>
+          <t>-4,29; -2,65</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,76; -2,41</t>
+          <t>-2,76; -1,64</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,82; -2,43</t>
+          <t>-2,71; -1,53</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,86; -1,29</t>
+          <t>-3,2; -2,13</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-47,63%</t>
+          <t>-43,72%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-70,25%</t>
+          <t>-53,83%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-37,18%</t>
+          <t>-63,46%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-70,86%</t>
+          <t>-65,22%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-58,6%</t>
+          <t>-54,4%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-50,83%</t>
+          <t>-73,84%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-61,88%</t>
+          <t>-57,09%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-63,08%</t>
+          <t>-54,13%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-45,44%</t>
+          <t>-69,87%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-69,68; -6,65</t>
+          <t>-60,55; -22,58</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-85,66; -42,97</t>
+          <t>-68,54; -33,87</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-61,21; 7,54</t>
+          <t>-75,99; -43,83</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-83,64; -51,58</t>
+          <t>-74,84; -51,95</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-74,8; -36,51</t>
+          <t>-66,53; -40,91</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-67,07; -29,27</t>
+          <t>-81,74; -64,83</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-73,32; -46,56</t>
+          <t>-65,84; -46,23</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-75,75; -49,1</t>
+          <t>-64,08; -43,4</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-60,86; -26,29</t>
+          <t>-77,03; -61,55</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-1,29</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-1,59</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-1,81</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-3,06</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-2,55</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-3,4</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-2,19</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-2,07</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-2,61</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-2,04; -0,57</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; -0,91</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-2,5; -1,13</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-3,92; -2,24</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-3,54; -1,77</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-4,23; -2,6</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-2,76; -1,64</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-2,71; -1,53</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-3,15; -2,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-43,72%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-53,83%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-61,41%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-65,22%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-54,4%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-72,45%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-57,09%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-54,13%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-68,18%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-60,55; -22,58</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-68,54; -33,87</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-74,25; -42,88</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-74,84; -51,95</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-66,53; -40,91</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-80,31; -63,01</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-65,84; -46,23</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-64,08; -43,4</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-75,28; -60,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
